--- a/mcmaster_excel/Metric_Left-Hand_Threaded_Button_Head_Screws.xlsx
+++ b/mcmaster_excel/Metric_Left-Hand_Threaded_Button_Head_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,78 +434,84 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg., mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize, mm</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr"/>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+          <t>Lg., mm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HeadDia., mm</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HeadHt., mm</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DriveSize, mm</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -553,7 +559,11 @@
           <t>$8.10</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -606,7 +616,11 @@
           <t>8.76</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -659,7 +673,11 @@
           <t>9.54</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -712,7 +730,11 @@
           <t>10.33</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -722,18 +744,54 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>95942A115</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>M4 × 0.7 mm</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -743,7 +801,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -778,15 +836,19 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>95942A115</t>
+          <t>95942A116</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>9.28</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -796,7 +858,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -831,15 +893,19 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>95942A116</t>
+          <t>95942A117</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>10.33</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+          <t>10.98</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -849,7 +915,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -884,15 +950,19 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>95942A117</t>
+          <t>95942A118</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>10.98</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -902,7 +972,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -912,17 +982,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>7.60</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -937,15 +1007,19 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>95942A118</t>
+          <t>95942A119</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>11.50</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -955,18 +1029,54 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>95942A121</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>M5 × 0.8 mm</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -976,7 +1086,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1011,15 +1121,19 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>95942A119</t>
+          <t>95942A122</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>9.64</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1029,7 +1143,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1064,15 +1178,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>95942A121</t>
+          <t>95942A123</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>10.34</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1082,7 +1200,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1092,17 +1210,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1117,15 +1235,19 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>95942A122</t>
+          <t>95942A124</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>11.15</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1135,7 +1257,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1145,17 +1267,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1170,15 +1292,19 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>95942A123</t>
+          <t>95942A125</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>12.43</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1188,18 +1314,54 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>95942A126</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>12.65</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>M6 × 1 mm</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1209,7 +1371,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1244,175 +1406,20 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>95942A124</t>
+          <t>95942A127</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>10.66</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
+          <t>14.22</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>10.50</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>95942A125</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>11.61</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>10.50</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>95942A126</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>12.65</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>10.50</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>95942A127</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>14.22</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
         </is>
